--- a/API ENDPOINT BACKEND.xlsx
+++ b/API ENDPOINT BACKEND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Project_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAF686-E430-4E75-8846-E2B01541C503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA40C4-9585-48C1-AB61-495E8DBF72AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
   <si>
     <r>
       <rPr>
@@ -291,12 +291,27 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>/auth/admin/login</t>
+  </si>
+  <si>
+    <t>Đăng nhập admin</t>
+  </si>
+  <si>
+    <t>/auth/admin/logout</t>
+  </si>
+  <si>
+    <t>Lấy thông tin user có id</t>
+  </si>
+  <si>
+    <t>/users/profile/:id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -350,6 +365,13 @@
       <color rgb="FF1155CC"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -518,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,24 +556,25 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,10 +1006,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -999,13 +1022,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1067,7 +1090,7 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1082,12 +1105,12 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1100,12 +1123,12 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1118,12 +1141,12 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1136,552 +1159,584 @@
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F12" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="4" t="s">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="4" t="s">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="4" t="s">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="16"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>54</v>
+      <c r="A26" s="15"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>56</v>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="21" t="s">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="16"/>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="8" t="s">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="16"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E44" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="9" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9" t="s">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="10"/>
@@ -1704,22 +1759,43 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
     </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A28:E28"/>
     <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/API ENDPOINT BACKEND.xlsx
+++ b/API ENDPOINT BACKEND.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Project_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA40C4-9585-48C1-AB61-495E8DBF72AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F05B9F-2337-49C0-9F07-3C6AF50F66F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <r>
       <rPr>
@@ -306,12 +306,27 @@
   <si>
     <t>/users/profile/:id</t>
   </si>
+  <si>
+    <t>/users/admins</t>
+  </si>
+  <si>
+    <t>Lấy danh sách admin</t>
+  </si>
+  <si>
+    <t>Đăng xuất tài khoản admin</t>
+  </si>
+  <si>
+    <t>Thêm mới quản trị viên</t>
+  </si>
+  <si>
+    <t>/admin/new</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -365,6 +380,13 @@
       <color rgb="FF1155CC"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -540,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,7 +596,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,10 +1030,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1172,7 +1196,9 @@
         <v>84</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="29" t="s">
+        <v>89</v>
+      </c>
       <c r="F7" s="13" t="s">
         <v>81</v>
       </c>
@@ -1272,6 +1298,9 @@
       <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F13" s="28" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="15"/>
@@ -1279,478 +1308,515 @@
         <v>18</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
+      <c r="B15" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
+      <c r="E15" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="4" t="s">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="22" t="s">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="16"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="15"/>
       <c r="B27" s="5" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="23" t="s">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="15"/>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="24" t="s">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="7" t="s">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="25" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="8" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="16"/>
+      <c r="B43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="14" t="s">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="9" t="s">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="15"/>
+      <c r="B47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="16"/>
+      <c r="B48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="10"/>
@@ -1780,22 +1846,36 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
     </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A44:E44"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
